--- a/EGR102-Intro-to-Computing/FitData.xlsx
+++ b/EGR102-Intro-to-Computing/FitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University-Coursework\EGR102-Intro-to-Computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E1EE93-E6D1-4E1E-ADEB-BD7F9AE77AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CFE7D8-4818-4C4C-AB66-E2D41A203F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33D903FE-2B71-4151-A4CC-ADC990900DA5}"/>
+    <workbookView xWindow="7275" yWindow="3945" windowWidth="15795" windowHeight="10080" activeTab="1" xr2:uid="{33D903FE-2B71-4151-A4CC-ADC990900DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>y = 32.9(x) - 6.775</t>
+  </si>
+  <si>
+    <t>y = -419.8(x) + 869.1</t>
   </si>
 </sst>
 </file>
@@ -392,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD38536-B77F-4327-89AC-52E83CEA0A84}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578D097A-18D3-4518-B6A8-B3BC8C4AF421}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,53 +491,62 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="B1">
         <v>615</v>
-      </c>
-      <c r="B1">
-        <v>0.79039999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.87790000000000001</v>
+      </c>
+      <c r="B2">
         <v>480</v>
-      </c>
-      <c r="B2">
-        <v>0.87790000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="B3">
         <v>460</v>
-      </c>
-      <c r="B3">
-        <v>0.87219999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1.6375</v>
+      </c>
+      <c r="B4">
         <v>140</v>
-      </c>
-      <c r="B4">
-        <v>1.6375</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1.9607000000000001</v>
+      </c>
+      <c r="B5">
         <v>33</v>
-      </c>
-      <c r="B5">
-        <v>1.9607000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>2.1669</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>2.1669</v>
-      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>